--- a/notebooks/assets/test_random_selection/RFpm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFpm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.636</v>
+        <v>1.428</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1</v>
+        <v>1.137</v>
       </c>
       <c r="D2" t="n">
-        <v>0.655</v>
+        <v>0.654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.995</v>
+        <v>0.882</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.121</v>
+        <v>1.94</v>
       </c>
       <c r="C3" t="n">
-        <v>1.38</v>
+        <v>1.413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.873</v>
+        <v>0.877</v>
       </c>
       <c r="E3" t="n">
-        <v>1.314</v>
+        <v>1.153</v>
       </c>
       <c r="F3" t="n">
-        <v>1.092</v>
+        <v>1.098</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.634</v>
+        <v>3.769</v>
       </c>
       <c r="C4" t="n">
-        <v>2.014</v>
+        <v>2.025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.779</v>
+        <v>0.793</v>
       </c>
       <c r="E4" t="n">
-        <v>1.744</v>
+        <v>1.354</v>
       </c>
       <c r="F4" t="n">
-        <v>1.302</v>
+        <v>1.238</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.838</v>
+        <v>0.873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.653</v>
+        <v>0.675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.852</v>
+        <v>0.871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.78</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.242000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="C6" t="n">
-        <v>7.883</v>
+        <v>7.914</v>
       </c>
       <c r="D6" t="n">
-        <v>1.381</v>
+        <v>1.386</v>
       </c>
       <c r="E6" t="n">
         <v>3.581</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.710000000000001</v>
+        <v>9.663</v>
       </c>
       <c r="C7" t="n">
-        <v>8.675000000000001</v>
+        <v>8.714</v>
       </c>
       <c r="D7" t="n">
-        <v>1.669</v>
+        <v>1.672</v>
       </c>
       <c r="E7" t="n">
-        <v>4.098</v>
+        <v>4.105</v>
       </c>
       <c r="F7" t="n">
-        <v>4.33</v>
+        <v>4.336</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.364</v>
+        <v>95.10899999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>75.94</v>
+        <v>76.441</v>
       </c>
       <c r="D8" t="n">
-        <v>2.855</v>
+        <v>2.867</v>
       </c>
       <c r="E8" t="n">
         <v>16.923</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.244</v>
+        <v>-2.312</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.743</v>
+        <v>-8.545999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.248</v>
+        <v>-0.185</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.476</v>
+        <v>-0.632</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.273</v>
+        <v>-2.373</v>
       </c>
     </row>
   </sheetData>
